--- a/test_datas/main_suite/main_test.xlsx
+++ b/test_datas/main_suite/main_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_code\PO_001\test_datas\main_suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4230B17-1826-47A1-86BB-C2D0C69B72D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E70AB7-6BC9-47F3-802E-7218FD0D2673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="1500" windowWidth="21960" windowHeight="8964" activeTab="1" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
+    <workbookView xWindow="1080" yWindow="1536" windowWidth="21960" windowHeight="8964" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="QuitTest" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>测试方法名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,11 +90,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto_product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证点击进入产品主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto_project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证进入项目主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证进入测试主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证进入文档主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档主页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8DE83D-607C-4D12-9D41-2CCE80E7032E}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -523,25 +567,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H2" xr:uid="{161EDC4D-A6DA-42B9-926B-1FF286C42195}">
-      <formula1>$C$1:$C$4</formula1>
+      <formula1>$C$1:$C$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -551,10 +581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9465CB-8F27-4183-B7D2-E97A57D9F08B}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -601,7 +631,63 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
